--- a/1-Data/WG2_Data_Andrew.xlsx
+++ b/1-Data/WG2_Data_Andrew.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{04AA44D3-644B-45A2-BF09-5EE9DF11965E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9283F19F-1333-4EB0-AD2A-192A3F31006E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198123DC-36E7-43EE-AC8E-FEF33E15931C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{164B2391-72ED-4123-88C4-F5EA66FE5A7E}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{164B2391-72ED-4123-88C4-F5EA66FE5A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Light data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="71">
   <si>
     <t>pi_name</t>
   </si>
@@ -242,6 +242,18 @@
   <si>
     <t>&gt;RANGE</t>
   </si>
+  <si>
+    <t>Ozerky</t>
+  </si>
+  <si>
+    <t>Washburn</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>SCS2</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -321,10 +333,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,20 +672,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A5FA39-2AEB-4A55-9887-D3F9F3BA9576}">
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,34 +700,37 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -726,33 +743,36 @@
       <c r="D2" s="2">
         <v>45511</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="str">
-        <f>CONCATENATE(A2,"_",B2,"_",C2,"_",E2)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_air_Aug</v>
-      </c>
-      <c r="G2">
-        <v>16.5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="G2" t="str">
+        <f>CONCATENATE(A2,"_",B2,"_",C2,"_",F2,"_",E2)</f>
+        <v>Vick_Majors_Superior_GLRC_Dock_air_Aug_2024</v>
+      </c>
+      <c r="H2">
+        <v>3769.0950000000003</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
       </c>
       <c r="O2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -765,33 +785,36 @@
       <c r="D3" s="2">
         <v>45511</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="str">
-        <f>CONCATENATE(A3,"_",B3,"_",C3,"_",E3)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_0_Aug</v>
-      </c>
-      <c r="G3">
-        <v>7.5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">CONCATENATE(A3,"_",B3,"_",C3,"_",F3,"_",E3)</f>
+        <v>Vick_Majors_Superior_GLRC_Dock_0_Aug_2024</v>
+      </c>
+      <c r="H3">
+        <v>1713.2250000000001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -804,24 +827,24 @@
       <c r="D4" s="2">
         <v>45511</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="str">
-        <f>CONCATENATE(A4,"_",B4,"_",C4,"_",E4)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_1_Aug</v>
-      </c>
-      <c r="G4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_1_Aug_2024</v>
+      </c>
+      <c r="H4">
+        <v>1005.0920000000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
@@ -829,8 +852,11 @@
       <c r="O4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -843,24 +869,24 @@
       <c r="D5" s="2">
         <v>45511</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="str">
-        <f>CONCATENATE(A5,"_",B5,"_",C5,"_",E5)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_1.5_Aug</v>
-      </c>
-      <c r="G5">
-        <v>3.1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_1.5_Aug_2024</v>
+      </c>
+      <c r="H5">
+        <v>708.13300000000004</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
@@ -868,8 +894,11 @@
       <c r="O5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -882,24 +911,24 @@
       <c r="D6" s="2">
         <v>45511</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="str">
-        <f>CONCATENATE(A6,"_",B6,"_",C6,"_",E6)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_2_Aug</v>
-      </c>
-      <c r="G6">
-        <v>1.6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_2_Aug_2024</v>
+      </c>
+      <c r="H6">
+        <v>365.48800000000006</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
         <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
@@ -907,8 +936,11 @@
       <c r="O6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -921,24 +953,24 @@
       <c r="D7" s="2">
         <v>45511</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="str">
-        <f>CONCATENATE(A7,"_",B7,"_",C7,"_",E7)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_2.5_Aug</v>
-      </c>
-      <c r="G7">
-        <v>1.4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_2.5_Aug_2024</v>
+      </c>
+      <c r="H7">
+        <v>319.80199999999996</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
         <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -946,8 +978,11 @@
       <c r="O7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -960,21 +995,24 @@
       <c r="D8" s="2">
         <v>45511</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="str">
-        <f>CONCATENATE(A8,"_",B8,"_",C8,"_",E8)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_3_Aug</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_3_Aug_2024</v>
+      </c>
+      <c r="H8">
+        <v>228.43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -987,21 +1025,24 @@
       <c r="D9" s="2">
         <v>45511</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="str">
-        <f>CONCATENATE(A9,"_",B9,"_",C9,"_",E9)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_3.5_Aug</v>
-      </c>
-      <c r="G9">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_3.5_Aug_2024</v>
+      </c>
+      <c r="H9">
+        <v>159.90099999999998</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1014,21 +1055,24 @@
       <c r="D10" s="2">
         <v>45511</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="str">
-        <f>CONCATENATE(A10,"_",B10,"_",C10,"_",E10)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_4_Aug</v>
-      </c>
-      <c r="G10">
-        <v>0.5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_4_Aug_2024</v>
+      </c>
+      <c r="H10">
+        <v>114.215</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1041,21 +1085,24 @@
       <c r="D11" s="2">
         <v>45511</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="str">
-        <f>CONCATENATE(A11,"_",B11,"_",C11,"_",E11)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_4.5_Aug</v>
-      </c>
-      <c r="G11">
-        <v>0.37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_4.5_Aug_2024</v>
+      </c>
+      <c r="H11">
+        <v>84.519099999999995</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1068,21 +1115,24 @@
       <c r="D12" s="2">
         <v>45511</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="str">
-        <f>CONCATENATE(A12,"_",B12,"_",C12,"_",E12)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_5_Aug</v>
-      </c>
-      <c r="G12">
-        <v>0.26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_5_Aug_2024</v>
+      </c>
+      <c r="H12">
+        <v>59.391800000000003</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1095,21 +1145,24 @@
       <c r="D13" s="2">
         <v>45511</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="str">
-        <f>CONCATENATE(A13,"_",B13,"_",C13,"_",E13)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_5.5_Aug</v>
-      </c>
-      <c r="G13">
-        <v>0.19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_5.5_Aug_2024</v>
+      </c>
+      <c r="H13">
+        <v>43.401700000000005</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1122,21 +1175,24 @@
       <c r="D14" s="2">
         <v>45511</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="str">
-        <f>CONCATENATE(A14,"_",B14,"_",C14,"_",E14)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_6_Aug</v>
-      </c>
-      <c r="G14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_6_Aug_2024</v>
+      </c>
+      <c r="H14">
+        <v>31.980200000000004</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1149,21 +1205,24 @@
       <c r="D15" s="2">
         <v>45511</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="str">
-        <f>CONCATENATE(A15,"_",B15,"_",C15,"_",E15)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_7_Aug</v>
-      </c>
-      <c r="G15">
-        <v>0.08</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_7_Aug_2024</v>
+      </c>
+      <c r="H15">
+        <v>18.2744</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1176,21 +1235,24 @@
       <c r="D16" s="2">
         <v>45509</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="str">
-        <f>CONCATENATE(A16,"_",B16,"_",C16,"_",E16)</f>
-        <v>Wagner_SCS1_air_Aug</v>
-      </c>
-      <c r="G16">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>Wagner_SCS1_air_Aug_2024</v>
+      </c>
+      <c r="H16">
         <v>192.6</v>
       </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1203,21 +1265,24 @@
       <c r="D17" s="2">
         <v>45509</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="str">
-        <f>CONCATENATE(A17,"_",B17,"_",C17,"_",E17)</f>
-        <v>Wagner_SCS1_0_Aug</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Wagner_SCS1_0_Aug_2024</v>
+      </c>
+      <c r="H17">
         <v>131.1</v>
       </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1230,21 +1295,24 @@
       <c r="D18" s="2">
         <v>45509</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" t="str">
-        <f>CONCATENATE(A18,"_",B18,"_",C18,"_",E18)</f>
-        <v>Wagner_SCS1_0.5_Aug</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Wagner_SCS1_0.5_Aug_2024</v>
+      </c>
+      <c r="H18">
         <v>72.03</v>
       </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1257,21 +1325,24 @@
       <c r="D19" s="2">
         <v>45509</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="str">
-        <f>CONCATENATE(A19,"_",B19,"_",C19,"_",E19)</f>
-        <v>Wagner_SCS1_1_Aug</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Wagner_SCS1_1_Aug_2024</v>
+      </c>
+      <c r="H19">
         <v>35.61</v>
       </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1284,21 +1355,24 @@
       <c r="D20" s="2">
         <v>45509</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" t="str">
-        <f>CONCATENATE(A20,"_",B20,"_",C20,"_",E20)</f>
-        <v>Wagner_SCS1_1.5_Aug</v>
-      </c>
-      <c r="G20">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Wagner_SCS1_1.5_Aug_2024</v>
+      </c>
+      <c r="H20">
         <v>22.97</v>
       </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1311,21 +1385,24 @@
       <c r="D21" s="2">
         <v>45509</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="str">
-        <f>CONCATENATE(A21,"_",B21,"_",C21,"_",E21)</f>
-        <v>Wagner_SCS1_2_Aug</v>
-      </c>
-      <c r="G21">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Wagner_SCS1_2_Aug_2024</v>
+      </c>
+      <c r="H21">
         <v>15.27</v>
       </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1338,21 +1415,24 @@
       <c r="D22" s="2">
         <v>45496</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" t="str">
-        <f>CONCATENATE(A22,"_",B22,"_",C22,"_",E22)</f>
-        <v>Uzarski_Mich_NW_Pier_air_Jul</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Uzarski_Mich_NW_Pier_air_Jul_2024</v>
+      </c>
+      <c r="H22">
         <v>380.1</v>
       </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1365,21 +1445,24 @@
       <c r="D23" s="2">
         <v>45496</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="str">
-        <f>CONCATENATE(A23,"_",B23,"_",C23,"_",E23)</f>
-        <v>Uzarski_Mich_NW_Pier_0_Jul</v>
-      </c>
-      <c r="G23">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>Uzarski_Mich_NW_Pier_0_Jul_2024</v>
+      </c>
+      <c r="H23">
         <v>235.1</v>
       </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1392,21 +1475,24 @@
       <c r="D24" s="2">
         <v>45496</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="str">
-        <f>CONCATENATE(A24,"_",B24,"_",C24,"_",E24)</f>
-        <v>Uzarski_Mich_NW_Pier_0.5_Jul</v>
-      </c>
-      <c r="G24">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Uzarski_Mich_NW_Pier_0.5_Jul_2024</v>
+      </c>
+      <c r="H24">
         <v>207.8</v>
       </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1419,21 +1505,24 @@
       <c r="D25" s="2">
         <v>45496</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="str">
-        <f>CONCATENATE(A25,"_",B25,"_",C25,"_",E25)</f>
-        <v>Uzarski_Mich_NW_Pier_1_Jul</v>
-      </c>
-      <c r="G25">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>Uzarski_Mich_NW_Pier_1_Jul_2024</v>
+      </c>
+      <c r="H25">
         <v>190.64</v>
       </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1446,21 +1535,24 @@
       <c r="D26" s="2">
         <v>45496</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="str">
-        <f>CONCATENATE(A26,"_",B26,"_",C26,"_",E26)</f>
-        <v>Uzarski_Mich_NW_Pier_2_Jul</v>
-      </c>
-      <c r="G26">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>Uzarski_Mich_NW_Pier_2_Jul_2024</v>
+      </c>
+      <c r="H26">
         <v>132.66</v>
       </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1473,21 +1565,24 @@
       <c r="D27" s="2">
         <v>45517</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="str">
-        <f>CONCATENATE(A27,"_",B27,"_",C27,"_",E27)</f>
-        <v>Doubek_LS_Whitefish_Bay_air_Aug</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_air_Aug_2024</v>
+      </c>
+      <c r="H27" s="4">
         <v>361.9</v>
       </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1500,21 +1595,24 @@
       <c r="D28" s="2">
         <v>45517</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" t="str">
-        <f>CONCATENATE(A28,"_",B28,"_",C28,"_",E28)</f>
-        <v>Doubek_LS_Whitefish_Bay_0.1_Aug</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_0.1_Aug_2024</v>
+      </c>
+      <c r="H28" s="3">
         <v>104.8</v>
       </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1527,21 +1625,24 @@
       <c r="D29" s="2">
         <v>45517</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F29" t="str">
-        <f>CONCATENATE(A29,"_",B29,"_",C29,"_",E29)</f>
-        <v>Doubek_LS_Whitefish_Bay_0.5_Aug</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_0.5_Aug_2024</v>
+      </c>
+      <c r="H29" s="3">
         <v>87.92</v>
       </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1554,21 +1655,24 @@
       <c r="D30" s="2">
         <v>45517</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="str">
-        <f>CONCATENATE(A30,"_",B30,"_",C30,"_",E30)</f>
-        <v>Doubek_LS_Whitefish_Bay_1_Aug</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_1_Aug_2024</v>
+      </c>
+      <c r="H30" s="3">
         <v>83.92</v>
       </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1581,21 +1685,24 @@
       <c r="D31" s="2">
         <v>45517</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F31" t="str">
-        <f>CONCATENATE(A31,"_",B31,"_",C31,"_",E31)</f>
-        <v>Doubek_LS_Whitefish_Bay_1.5_Aug</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_1.5_Aug_2024</v>
+      </c>
+      <c r="H31" s="3">
         <v>72.84</v>
       </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1608,21 +1715,24 @@
       <c r="D32" s="2">
         <v>45517</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F32" t="str">
-        <f>CONCATENATE(A32,"_",B32,"_",C32,"_",E32)</f>
-        <v>Doubek_LS_Whitefish_Bay_2_Aug</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_2_Aug_2024</v>
+      </c>
+      <c r="H32" s="3">
         <v>86.05</v>
       </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1635,21 +1745,24 @@
       <c r="D33" s="2">
         <v>45517</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="str">
-        <f>CONCATENATE(A33,"_",B33,"_",C33,"_",E33)</f>
-        <v>Doubek_LS_Whitefish_Bay_2.5_Aug</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_2.5_Aug_2024</v>
+      </c>
+      <c r="H33" s="3">
         <v>65.430000000000007</v>
       </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1662,21 +1775,24 @@
       <c r="D34" s="2">
         <v>45517</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F34" t="str">
-        <f>CONCATENATE(A34,"_",B34,"_",C34,"_",E34)</f>
-        <v>Doubek_LS_Whitefish_Bay_3_Aug</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_3_Aug_2024</v>
+      </c>
+      <c r="H34" s="3">
         <v>62.12</v>
       </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1689,21 +1805,24 @@
       <c r="D35" s="2">
         <v>45517</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="str">
-        <f>CONCATENATE(A35,"_",B35,"_",C35,"_",E35)</f>
-        <v>Doubek_LS_Whitefish_Bay_3.5_Aug</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_3.5_Aug_2024</v>
+      </c>
+      <c r="H35" s="3">
         <v>56.13</v>
       </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1716,21 +1835,24 @@
       <c r="D36" s="2">
         <v>45517</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F36" t="str">
-        <f>CONCATENATE(A36,"_",B36,"_",C36,"_",E36)</f>
-        <v>Doubek_LS_Whitefish_Bay_4_Aug</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_4_Aug_2024</v>
+      </c>
+      <c r="H36" s="3">
         <v>51.48</v>
       </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1743,21 +1865,24 @@
       <c r="D37" s="2">
         <v>45517</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F37" t="str">
-        <f>CONCATENATE(A37,"_",B37,"_",C37,"_",E37)</f>
-        <v>Doubek_LS_Whitefish_Bay_4.5_Aug</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_4.5_Aug_2024</v>
+      </c>
+      <c r="H37" s="3">
         <v>47.42</v>
       </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1770,21 +1895,24 @@
       <c r="D38" s="2">
         <v>45517</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F38" t="str">
-        <f>CONCATENATE(A38,"_",B38,"_",C38,"_",E38)</f>
-        <v>Doubek_LS_Whitefish_Bay_5_Aug</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_5_Aug_2024</v>
+      </c>
+      <c r="H38" s="3">
         <v>44.3</v>
       </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1797,21 +1925,24 @@
       <c r="D39" s="2">
         <v>45517</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="str">
-        <f>CONCATENATE(A39,"_",B39,"_",C39,"_",E39)</f>
-        <v>Doubek_LS_Whitefish_Bay_5.5_Aug</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_5.5_Aug_2024</v>
+      </c>
+      <c r="H39" s="3">
         <v>42.35</v>
       </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1824,21 +1955,24 @@
       <c r="D40" s="2">
         <v>45517</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F40" t="str">
-        <f>CONCATENATE(A40,"_",B40,"_",C40,"_",E40)</f>
-        <v>Doubek_LS_Whitefish_Bay_6_Aug</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_6_Aug_2024</v>
+      </c>
+      <c r="H40" s="3">
         <v>39.25</v>
       </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1851,21 +1985,24 @@
       <c r="D41" s="2">
         <v>45517</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F41" t="str">
-        <f>CONCATENATE(A41,"_",B41,"_",C41,"_",E41)</f>
-        <v>Doubek_LS_Whitefish_Bay_6.5_Aug</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_6.5_Aug_2024</v>
+      </c>
+      <c r="H41" s="3">
         <v>36.04</v>
       </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1878,21 +2015,24 @@
       <c r="D42" s="2">
         <v>45517</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="str">
-        <f>CONCATENATE(A42,"_",B42,"_",C42,"_",E42)</f>
-        <v>Doubek_LS_Whitefish_Bay_7_Aug</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_7_Aug_2024</v>
+      </c>
+      <c r="H42" s="3">
         <v>34.71</v>
       </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1905,21 +2045,24 @@
       <c r="D43" s="2">
         <v>45517</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="str">
-        <f>CONCATENATE(A43,"_",B43,"_",C43,"_",E43)</f>
-        <v>Doubek_LS_Whitefish_Bay_7.5_Aug</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_7.5_Aug_2024</v>
+      </c>
+      <c r="H43" s="3">
         <v>31.56</v>
       </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1932,21 +2075,24 @@
       <c r="D44" s="2">
         <v>45517</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" t="str">
-        <f>CONCATENATE(A44,"_",B44,"_",C44,"_",E44)</f>
-        <v>Doubek_LS_Whitefish_Bay_8_Aug</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_8_Aug_2024</v>
+      </c>
+      <c r="H44" s="3">
         <v>27.73</v>
       </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1959,21 +2105,24 @@
       <c r="D45" s="2">
         <v>45517</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="str">
-        <f>CONCATENATE(A45,"_",B45,"_",C45,"_",E45)</f>
-        <v>Doubek_LS_Whitefish_Bay_8.5_Aug</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_8.5_Aug_2024</v>
+      </c>
+      <c r="H45" s="3">
         <v>24.6</v>
       </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1986,21 +2135,24 @@
       <c r="D46" s="2">
         <v>45517</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F46" t="str">
-        <f>CONCATENATE(A46,"_",B46,"_",C46,"_",E46)</f>
-        <v>Doubek_LS_Whitefish_Bay_9_Aug</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_9_Aug_2024</v>
+      </c>
+      <c r="H46" s="3">
         <v>22.46</v>
       </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2013,21 +2165,24 @@
       <c r="D47" s="2">
         <v>45517</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F47" t="str">
-        <f>CONCATENATE(A47,"_",B47,"_",C47,"_",E47)</f>
-        <v>Doubek_LS_Whitefish_Bay_9.5_Aug</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LS_Whitefish_Bay_9.5_Aug_2024</v>
+      </c>
+      <c r="H47" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2040,21 +2195,24 @@
       <c r="D48" s="2">
         <v>45517</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="str">
-        <f>CONCATENATE(A48,"_",B48,"_",C48,"_",E48)</f>
-        <v>Doubek_LH_St_Martin_air_Aug</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_air_Aug_2024</v>
+      </c>
+      <c r="H48" s="3">
         <v>1928.1</v>
       </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2067,21 +2225,24 @@
       <c r="D49" s="2">
         <v>45517</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F49" t="str">
-        <f>CONCATENATE(A49,"_",B49,"_",C49,"_",E49)</f>
-        <v>Doubek_LH_St_Martin_0.1_Aug</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_0.1_Aug_2024</v>
+      </c>
+      <c r="H49" s="3">
         <v>930</v>
       </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2094,21 +2255,24 @@
       <c r="D50" s="2">
         <v>45517</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F50" t="str">
-        <f>CONCATENATE(A50,"_",B50,"_",C50,"_",E50)</f>
-        <v>Doubek_LH_St_Martin_0.5_Aug</v>
-      </c>
-      <c r="G50" s="3">
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_0.5_Aug_2024</v>
+      </c>
+      <c r="H50" s="3">
         <v>880.1</v>
       </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2121,21 +2285,24 @@
       <c r="D51" s="2">
         <v>45517</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F51" t="str">
-        <f>CONCATENATE(A51,"_",B51,"_",C51,"_",E51)</f>
-        <v>Doubek_LH_St_Martin_1_Aug</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_1_Aug_2024</v>
+      </c>
+      <c r="H51" s="3">
         <v>824.8</v>
       </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2148,21 +2315,24 @@
       <c r="D52" s="2">
         <v>45517</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" t="str">
-        <f>CONCATENATE(A52,"_",B52,"_",C52,"_",E52)</f>
-        <v>Doubek_LH_St_Martin_1.5_Aug</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_1.5_Aug_2024</v>
+      </c>
+      <c r="H52" s="3">
         <v>733.5</v>
       </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2175,21 +2345,24 @@
       <c r="D53" s="2">
         <v>45517</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F53" t="str">
-        <f>CONCATENATE(A53,"_",B53,"_",C53,"_",E53)</f>
-        <v>Doubek_LH_St_Martin_2_Aug</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_2_Aug_2024</v>
+      </c>
+      <c r="H53" s="3">
         <v>713.5</v>
       </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2202,21 +2375,24 @@
       <c r="D54" s="2">
         <v>45517</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F54" t="str">
-        <f>CONCATENATE(A54,"_",B54,"_",C54,"_",E54)</f>
-        <v>Doubek_LH_St_Martin_2.5_Aug</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_2.5_Aug_2024</v>
+      </c>
+      <c r="H54" s="3">
         <v>649.9</v>
       </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2229,21 +2405,24 @@
       <c r="D55" s="2">
         <v>45517</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F55" t="str">
-        <f>CONCATENATE(A55,"_",B55,"_",C55,"_",E55)</f>
-        <v>Doubek_LH_St_Martin_3_Aug</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_3_Aug_2024</v>
+      </c>
+      <c r="H55" s="3">
         <v>656</v>
       </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2256,21 +2435,24 @@
       <c r="D56" s="2">
         <v>45517</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" t="str">
-        <f>CONCATENATE(A56,"_",B56,"_",C56,"_",E56)</f>
-        <v>Doubek_LH_St_Martin_3.5_Aug</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_3.5_Aug_2024</v>
+      </c>
+      <c r="H56" s="3">
         <v>578.20000000000005</v>
       </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2283,21 +2465,24 @@
       <c r="D57" s="2">
         <v>45517</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F57" t="str">
-        <f>CONCATENATE(A57,"_",B57,"_",C57,"_",E57)</f>
-        <v>Doubek_LH_St_Martin_4_Aug</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_4_Aug_2024</v>
+      </c>
+      <c r="H57" s="3">
         <v>535.4</v>
       </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2310,21 +2495,24 @@
       <c r="D58" s="2">
         <v>45517</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F58" t="str">
-        <f>CONCATENATE(A58,"_",B58,"_",C58,"_",E58)</f>
-        <v>Doubek_LH_St_Martin_4.5_Aug</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_4.5_Aug_2024</v>
+      </c>
+      <c r="H58" s="3">
         <v>511.7</v>
       </c>
-      <c r="H58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2337,21 +2525,24 @@
       <c r="D59" s="2">
         <v>45517</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F59" t="str">
-        <f>CONCATENATE(A59,"_",B59,"_",C59,"_",E59)</f>
-        <v>Doubek_LH_St_Martin_5_Aug</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_5_Aug_2024</v>
+      </c>
+      <c r="H59" s="3">
         <v>479.3</v>
       </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2364,21 +2555,24 @@
       <c r="D60" s="2">
         <v>45517</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F60" t="str">
-        <f>CONCATENATE(A60,"_",B60,"_",C60,"_",E60)</f>
-        <v>Doubek_LH_St_Martin_5.5_Aug</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_5.5_Aug_2024</v>
+      </c>
+      <c r="H60" s="3">
         <v>432.3</v>
       </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2391,21 +2585,24 @@
       <c r="D61" s="2">
         <v>45517</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61" t="str">
-        <f>CONCATENATE(A61,"_",B61,"_",C61,"_",E61)</f>
-        <v>Doubek_LH_St_Martin_6_Aug</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_6_Aug_2024</v>
+      </c>
+      <c r="H61" s="3">
         <v>410.8</v>
       </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2418,21 +2615,24 @@
       <c r="D62" s="2">
         <v>45517</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F62" t="str">
-        <f>CONCATENATE(A62,"_",B62,"_",C62,"_",E62)</f>
-        <v>Doubek_LH_St_Martin_6.5_Aug</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_6.5_Aug_2024</v>
+      </c>
+      <c r="H62" s="3">
         <v>378.7</v>
       </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2445,21 +2645,24 @@
       <c r="D63" s="2">
         <v>45517</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F63" t="str">
-        <f>CONCATENATE(A63,"_",B63,"_",C63,"_",E63)</f>
-        <v>Doubek_LH_St_Martin_7_Aug</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_7_Aug_2024</v>
+      </c>
+      <c r="H63" s="3">
         <v>360.1</v>
       </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2472,21 +2675,24 @@
       <c r="D64" s="2">
         <v>45517</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F64" t="str">
-        <f>CONCATENATE(A64,"_",B64,"_",C64,"_",E64)</f>
-        <v>Doubek_LH_St_Martin_7.5_Aug</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_7.5_Aug_2024</v>
+      </c>
+      <c r="H64" s="3">
         <v>337.6</v>
       </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -2499,21 +2705,24 @@
       <c r="D65" s="2">
         <v>45517</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F65" t="str">
-        <f>CONCATENATE(A65,"_",B65,"_",C65,"_",E65)</f>
-        <v>Doubek_LH_St_Martin_8_Aug</v>
-      </c>
-      <c r="G65" s="3">
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_8_Aug_2024</v>
+      </c>
+      <c r="H65" s="3">
         <v>324.60000000000002</v>
       </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -2526,21 +2735,24 @@
       <c r="D66" s="2">
         <v>45517</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F66" t="str">
-        <f>CONCATENATE(A66,"_",B66,"_",C66,"_",E66)</f>
-        <v>Doubek_LH_St_Martin_8.5_Aug</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>Doubek_LH_St_Martin_8.5_Aug_2024</v>
+      </c>
+      <c r="H66" s="3">
         <v>304.60000000000002</v>
       </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2553,21 +2765,24 @@
       <c r="D67" s="2">
         <v>45517</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F67" t="str">
-        <f>CONCATENATE(A67,"_",B67,"_",C67,"_",E67)</f>
-        <v>Doubek_LH_St_Martin_9_Aug</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">CONCATENATE(A67,"_",B67,"_",C67,"_",F67,"_",E67)</f>
+        <v>Doubek_LH_St_Martin_9_Aug_2024</v>
+      </c>
+      <c r="H67" s="3">
         <v>276.7</v>
       </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -2580,21 +2795,24 @@
       <c r="D68" s="2">
         <v>45517</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F68" t="str">
-        <f>CONCATENATE(A68,"_",B68,"_",C68,"_",E68)</f>
-        <v>Doubek_LH_St_Martin_9.5_Aug</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_9.5_Aug_2024</v>
+      </c>
+      <c r="H68" s="3">
         <v>217.2</v>
       </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2607,21 +2825,24 @@
       <c r="D69" s="2">
         <v>45426</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" t="str">
-        <f>CONCATENATE(A69,"_",B69,"_",C69,"_",E69)</f>
-        <v>Wagner_SCS1_air_May</v>
-      </c>
-      <c r="G69" s="3">
+      <c r="E69" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>Wagner_SCS1_air_May_2024</v>
+      </c>
+      <c r="H69" s="3">
         <v>625.5</v>
       </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2634,21 +2855,24 @@
       <c r="D70" s="2">
         <v>45426</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" t="str">
-        <f>CONCATENATE(A70,"_",B70,"_",C70,"_",E70)</f>
-        <v>Wagner_SCS1_0_May</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="E70" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>Wagner_SCS1_0_May_2024</v>
+      </c>
+      <c r="H70" s="3">
         <v>366.4</v>
       </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2661,21 +2885,24 @@
       <c r="D71" s="2">
         <v>45426</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" t="str">
-        <f>CONCATENATE(A71,"_",B71,"_",C71,"_",E71)</f>
-        <v>Wagner_SCS1_0.5_May</v>
-      </c>
-      <c r="G71" s="3">
+      <c r="E71" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>Wagner_SCS1_0.5_May_2024</v>
+      </c>
+      <c r="H71" s="3">
         <v>260.5</v>
       </c>
-      <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -2688,21 +2915,24 @@
       <c r="D72" s="2">
         <v>45426</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" t="str">
-        <f>CONCATENATE(A72,"_",B72,"_",C72,"_",E72)</f>
-        <v>Wagner_SCS1_1_May</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="E72" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>Wagner_SCS1_1_May_2024</v>
+      </c>
+      <c r="H72" s="3">
         <v>200</v>
       </c>
-      <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -2715,21 +2945,24 @@
       <c r="D73" s="2">
         <v>45426</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" t="str">
-        <f>CONCATENATE(A73,"_",B73,"_",C73,"_",E73)</f>
-        <v>Wagner_SCS1_1.5_May</v>
-      </c>
-      <c r="G73" s="3">
+      <c r="E73" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>Wagner_SCS1_1.5_May_2024</v>
+      </c>
+      <c r="H73" s="3">
         <v>142.6</v>
       </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2742,21 +2975,25 @@
       <c r="D74" s="2">
         <v>45441</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" t="str">
-        <f>CONCATENATE(A74,"_",B74,"_",C74,"_",E74)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_air_May</v>
-      </c>
-      <c r="G74" s="3">
-        <v>16</v>
-      </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E74" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_air_May_2024</v>
+      </c>
+      <c r="H74">
+        <v>3654.88</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2769,21 +3006,25 @@
       <c r="D75" s="2">
         <v>45441</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="str">
-        <f>CONCATENATE(A75,"_",B75,"_",C75,"_",E75)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_0_May</v>
-      </c>
-      <c r="G75" s="3">
-        <v>8.01</v>
-      </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E75" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_0_May_2024</v>
+      </c>
+      <c r="H75">
+        <v>1829.7243000000001</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2796,21 +3037,25 @@
       <c r="D76" s="2">
         <v>45441</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" t="str">
-        <f>CONCATENATE(A76,"_",B76,"_",C76,"_",E76)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_1_May</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E76" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_1_May_2024</v>
+      </c>
+      <c r="H76">
+        <v>525.38900000000001</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2823,21 +3068,25 @@
       <c r="D77" s="2">
         <v>45441</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" t="str">
-        <f>CONCATENATE(A77,"_",B77,"_",C77,"_",E77)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_1.5_May</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="H77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E77" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_1.5_May_2024</v>
+      </c>
+      <c r="H77">
+        <v>137.28643</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2850,21 +3099,25 @@
       <c r="D78" s="2">
         <v>45441</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" t="str">
-        <f>CONCATENATE(A78,"_",B78,"_",C78,"_",E78)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_2_May</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E78" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_2_May_2024</v>
+      </c>
+      <c r="H78">
+        <v>100.50920000000001</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2877,21 +3130,25 @@
       <c r="D79" s="2">
         <v>45441</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" t="str">
-        <f>CONCATENATE(A79,"_",B79,"_",C79,"_",E79)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_2.5_May</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E79" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_2.5_May_2024</v>
+      </c>
+      <c r="H79">
+        <v>102.79350000000001</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2904,21 +3161,25 @@
       <c r="D80" s="2">
         <v>45441</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" t="str">
-        <f>CONCATENATE(A80,"_",B80,"_",C80,"_",E80)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_3_May</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E80" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_3_May_2024</v>
+      </c>
+      <c r="H80">
+        <v>66.244699999999995</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2931,21 +3192,25 @@
       <c r="D81" s="2">
         <v>45441</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" t="str">
-        <f>CONCATENATE(A81,"_",B81,"_",C81,"_",E81)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_3.5_May</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E81" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_3.5_May_2024</v>
+      </c>
+      <c r="H81">
+        <v>114.215</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2958,21 +3223,25 @@
       <c r="D82" s="2">
         <v>45441</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" t="str">
-        <f>CONCATENATE(A82,"_",B82,"_",C82,"_",E82)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_4_May</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E82" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_4_May_2024</v>
+      </c>
+      <c r="H82">
+        <v>75.610330000000005</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2985,21 +3254,25 @@
       <c r="D83" s="2">
         <v>45441</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="str">
-        <f>CONCATENATE(A83,"_",B83,"_",C83,"_",E83)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_4.5_May</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E83" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_4.5_May_2024</v>
+      </c>
+      <c r="H83">
+        <v>36.5488</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3012,21 +3285,25 @@
       <c r="D84" s="2">
         <v>45441</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" t="str">
-        <f>CONCATENATE(A84,"_",B84,"_",C84,"_",E84)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_5_May</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="H84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E84" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_5_May_2024</v>
+      </c>
+      <c r="H84">
+        <v>28.553750000000001</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3039,21 +3316,25 @@
       <c r="D85" s="2">
         <v>45441</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" t="str">
-        <f>CONCATENATE(A85,"_",B85,"_",C85,"_",E85)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_5.5_May</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E85" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_5.5_May_2024</v>
+      </c>
+      <c r="H85">
+        <v>26.726310000000002</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3066,21 +3347,25 @@
       <c r="D86" s="2">
         <v>45441</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" t="str">
-        <f>CONCATENATE(A86,"_",B86,"_",C86,"_",E86)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_6_May</v>
-      </c>
-      <c r="G86" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E86" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_6_May_2024</v>
+      </c>
+      <c r="H86">
+        <v>19.416550000000001</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3093,21 +3378,25 @@
       <c r="D87" s="2">
         <v>45441</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" t="str">
-        <f>CONCATENATE(A87,"_",B87,"_",C87,"_",E87)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_7_May</v>
-      </c>
-      <c r="G87" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E87" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_7_May_2024</v>
+      </c>
+      <c r="H87">
+        <v>9.3656300000000012</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3120,21 +3409,25 @@
       <c r="D88" s="2">
         <v>45441</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" t="str">
-        <f>CONCATENATE(A88,"_",B88,"_",C88,"_",E88)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_8_May</v>
-      </c>
-      <c r="G88" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E88" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_8_May_2024</v>
+      </c>
+      <c r="H88">
+        <v>4.7970300000000003</v>
+      </c>
+      <c r="I88" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3147,21 +3440,25 @@
       <c r="D89" s="2">
         <v>45441</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" t="str">
-        <f>CONCATENATE(A89,"_",B89,"_",C89,"_",E89)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_9_May</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E89" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_9_May_2024</v>
+      </c>
+      <c r="H89">
+        <v>2.7411600000000003</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3174,21 +3471,25 @@
       <c r="D90" s="2">
         <v>45441</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" t="str">
-        <f>CONCATENATE(A90,"_",B90,"_",C90,"_",E90)</f>
-        <v>Vick_Majors_Superior_GLRC_Dock_10_May</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E90" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>Vick_Majors_Superior_GLRC_Dock_10_May_2024</v>
+      </c>
+      <c r="H90">
+        <v>2.7411600000000003</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -3201,21 +3502,24 @@
       <c r="D91" s="2">
         <v>45427</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" t="str">
-        <f>CONCATENATE(A91,"_",B91,"_",C91,"_",E91)</f>
-        <v>Doubek_LS_Whitefish_Bay_air_May</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="E91" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_air_May_2024</v>
+      </c>
+      <c r="H91" s="3">
         <v>2034</v>
       </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3228,21 +3532,24 @@
       <c r="D92" s="2">
         <v>45427</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" t="str">
-        <f>CONCATENATE(A92,"_",B92,"_",C92,"_",E92)</f>
-        <v>Doubek_LS_Whitefish_Bay_0.1_May</v>
-      </c>
-      <c r="G92" s="3">
+      <c r="E92" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_0.1_May_2024</v>
+      </c>
+      <c r="H92" s="3">
         <v>562</v>
       </c>
-      <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -3255,21 +3562,24 @@
       <c r="D93" s="2">
         <v>45427</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" t="str">
-        <f>CONCATENATE(A93,"_",B93,"_",C93,"_",E93)</f>
-        <v>Doubek_LS_Whitefish_Bay_0.5_May</v>
-      </c>
-      <c r="G93" s="3">
+      <c r="E93" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_0.5_May_2024</v>
+      </c>
+      <c r="H93" s="3">
         <v>237</v>
       </c>
-      <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -3282,21 +3592,24 @@
       <c r="D94" s="2">
         <v>45427</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" t="str">
-        <f>CONCATENATE(A94,"_",B94,"_",C94,"_",E94)</f>
-        <v>Doubek_LS_Whitefish_Bay_1_May</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="E94" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_1_May_2024</v>
+      </c>
+      <c r="H94" s="3">
         <v>160</v>
       </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -3309,21 +3622,24 @@
       <c r="D95" s="2">
         <v>45427</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" t="str">
-        <f>CONCATENATE(A95,"_",B95,"_",C95,"_",E95)</f>
-        <v>Doubek_LS_Whitefish_Bay_1.5_May</v>
-      </c>
-      <c r="G95" s="3">
+      <c r="E95" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_1.5_May_2024</v>
+      </c>
+      <c r="H95" s="3">
         <v>91</v>
       </c>
-      <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -3336,21 +3652,24 @@
       <c r="D96" s="2">
         <v>45427</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" t="str">
-        <f>CONCATENATE(A96,"_",B96,"_",C96,"_",E96)</f>
-        <v>Doubek_LS_Whitefish_Bay_2_May</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="E96" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_2_May_2024</v>
+      </c>
+      <c r="H96" s="3">
         <v>69</v>
       </c>
-      <c r="H96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -3363,21 +3682,24 @@
       <c r="D97" s="2">
         <v>45427</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" t="str">
-        <f>CONCATENATE(A97,"_",B97,"_",C97,"_",E97)</f>
-        <v>Doubek_LS_Whitefish_Bay_2.5_May</v>
-      </c>
-      <c r="G97" s="3">
+      <c r="E97" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_2.5_May_2024</v>
+      </c>
+      <c r="H97" s="3">
         <v>52</v>
       </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -3390,21 +3712,24 @@
       <c r="D98" s="2">
         <v>45427</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" t="str">
-        <f>CONCATENATE(A98,"_",B98,"_",C98,"_",E98)</f>
-        <v>Doubek_LS_Whitefish_Bay_3_May</v>
-      </c>
-      <c r="G98" s="3">
+      <c r="E98" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_3_May_2024</v>
+      </c>
+      <c r="H98" s="3">
         <v>30</v>
       </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -3417,21 +3742,24 @@
       <c r="D99" s="2">
         <v>45427</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" t="str">
-        <f>CONCATENATE(A99,"_",B99,"_",C99,"_",E99)</f>
-        <v>Doubek_LS_Whitefish_Bay_3.5_May</v>
-      </c>
-      <c r="G99" s="3">
+      <c r="E99" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_3.5_May_2024</v>
+      </c>
+      <c r="H99" s="3">
         <v>28</v>
       </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -3444,21 +3772,24 @@
       <c r="D100" s="2">
         <v>45427</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" t="str">
-        <f>CONCATENATE(A100,"_",B100,"_",C100,"_",E100)</f>
-        <v>Doubek_LS_Whitefish_Bay_4_May</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="E100" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_4_May_2024</v>
+      </c>
+      <c r="H100" s="3">
         <v>23</v>
       </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -3471,21 +3802,24 @@
       <c r="D101" s="2">
         <v>45427</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" t="str">
-        <f>CONCATENATE(A101,"_",B101,"_",C101,"_",E101)</f>
-        <v>Doubek_LS_Whitefish_Bay_4.5_May</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="E101" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_4.5_May_2024</v>
+      </c>
+      <c r="H101" s="3">
         <v>16</v>
       </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -3498,21 +3832,24 @@
       <c r="D102" s="2">
         <v>45427</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" t="str">
-        <f>CONCATENATE(A102,"_",B102,"_",C102,"_",E102)</f>
-        <v>Doubek_LS_Whitefish_Bay_5_May</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="E102" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_5_May_2024</v>
+      </c>
+      <c r="H102" s="3">
         <v>14</v>
       </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3525,21 +3862,24 @@
       <c r="D103" s="2">
         <v>45427</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F103" t="str">
-        <f>CONCATENATE(A103,"_",B103,"_",C103,"_",E103)</f>
-        <v>Doubek_LS_Whitefish_Bay_5.5_May</v>
-      </c>
-      <c r="G103" s="3">
+      <c r="E103" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_5.5_May_2024</v>
+      </c>
+      <c r="H103" s="3">
         <v>12</v>
       </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -3552,21 +3892,24 @@
       <c r="D104" s="2">
         <v>45427</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" t="str">
-        <f>CONCATENATE(A104,"_",B104,"_",C104,"_",E104)</f>
-        <v>Doubek_LS_Whitefish_Bay_6_May</v>
-      </c>
-      <c r="G104" s="3">
+      <c r="E104" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_6_May_2024</v>
+      </c>
+      <c r="H104" s="3">
         <v>9.5</v>
       </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -3579,21 +3922,24 @@
       <c r="D105" s="2">
         <v>45427</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" t="str">
-        <f>CONCATENATE(A105,"_",B105,"_",C105,"_",E105)</f>
-        <v>Doubek_LS_Whitefish_Bay_6.5_May</v>
-      </c>
-      <c r="G105" s="3">
+      <c r="E105" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_6.5_May_2024</v>
+      </c>
+      <c r="H105" s="3">
         <v>6.9</v>
       </c>
-      <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -3606,21 +3952,24 @@
       <c r="D106" s="2">
         <v>45427</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106" t="str">
-        <f>CONCATENATE(A106,"_",B106,"_",C106,"_",E106)</f>
-        <v>Doubek_LS_Whitefish_Bay_7_May</v>
-      </c>
-      <c r="G106" s="3">
+      <c r="E106" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_7_May_2024</v>
+      </c>
+      <c r="H106" s="3">
         <v>5.8</v>
       </c>
-      <c r="H106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3633,21 +3982,24 @@
       <c r="D107" s="2">
         <v>45427</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" t="str">
-        <f>CONCATENATE(A107,"_",B107,"_",C107,"_",E107)</f>
-        <v>Doubek_LS_Whitefish_Bay_7.5_May</v>
-      </c>
-      <c r="G107" s="3">
+      <c r="E107" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_7.5_May_2024</v>
+      </c>
+      <c r="H107" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -3660,21 +4012,24 @@
       <c r="D108" s="2">
         <v>45427</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" t="str">
-        <f>CONCATENATE(A108,"_",B108,"_",C108,"_",E108)</f>
-        <v>Doubek_LS_Whitefish_Bay_8_May</v>
-      </c>
-      <c r="G108" s="3">
+      <c r="E108" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_8_May_2024</v>
+      </c>
+      <c r="H108" s="3">
         <v>4.3</v>
       </c>
-      <c r="H108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -3687,21 +4042,24 @@
       <c r="D109" s="2">
         <v>45427</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F109" t="str">
-        <f>CONCATENATE(A109,"_",B109,"_",C109,"_",E109)</f>
-        <v>Doubek_LS_Whitefish_Bay_8.5_May</v>
-      </c>
-      <c r="G109" s="3">
+      <c r="E109" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_8.5_May_2024</v>
+      </c>
+      <c r="H109" s="3">
         <v>3.4</v>
       </c>
-      <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3714,21 +4072,24 @@
       <c r="D110" s="2">
         <v>45427</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F110" t="str">
-        <f>CONCATENATE(A110,"_",B110,"_",C110,"_",E110)</f>
-        <v>Doubek_LS_Whitefish_Bay_9_May</v>
-      </c>
-      <c r="G110" s="3">
+      <c r="E110" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_9_May_2024</v>
+      </c>
+      <c r="H110" s="3">
         <v>2.8</v>
       </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3741,21 +4102,24 @@
       <c r="D111" s="2">
         <v>45427</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" t="str">
-        <f>CONCATENATE(A111,"_",B111,"_",C111,"_",E111)</f>
-        <v>Doubek_LS_Whitefish_Bay_9.5_May</v>
-      </c>
-      <c r="G111" s="3">
+      <c r="E111" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LS_Whitefish_Bay_9.5_May_2024</v>
+      </c>
+      <c r="H111" s="3">
         <v>2.6</v>
       </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -3768,21 +4132,24 @@
       <c r="D112" s="2">
         <v>45427</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" t="str">
-        <f>CONCATENATE(A112,"_",B112,"_",C112,"_",E112)</f>
-        <v>Doubek_LH_St_Martin_air_May</v>
-      </c>
-      <c r="G112" s="3">
+      <c r="E112" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_air_May_2024</v>
+      </c>
+      <c r="H112" s="3">
         <v>2444</v>
       </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -3795,21 +4162,24 @@
       <c r="D113" s="2">
         <v>45427</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" t="str">
-        <f>CONCATENATE(A113,"_",B113,"_",C113,"_",E113)</f>
-        <v>Doubek_LH_St_Martin_0.1_May</v>
-      </c>
-      <c r="G113" s="3">
+      <c r="E113" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_0.1_May_2024</v>
+      </c>
+      <c r="H113" s="3">
         <v>1699</v>
       </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -3822,21 +4192,24 @@
       <c r="D114" s="2">
         <v>45427</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" t="str">
-        <f>CONCATENATE(A114,"_",B114,"_",C114,"_",E114)</f>
-        <v>Doubek_LH_St_Martin_0.5_May</v>
-      </c>
-      <c r="G114" s="3">
+      <c r="E114" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_0.5_May_2024</v>
+      </c>
+      <c r="H114" s="3">
         <v>1174</v>
       </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -3849,21 +4222,24 @@
       <c r="D115" s="2">
         <v>45427</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" t="str">
-        <f>CONCATENATE(A115,"_",B115,"_",C115,"_",E115)</f>
-        <v>Doubek_LH_St_Martin_1_May</v>
-      </c>
-      <c r="G115" s="3">
+      <c r="E115" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_1_May_2024</v>
+      </c>
+      <c r="H115" s="3">
         <v>1083</v>
       </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -3876,21 +4252,24 @@
       <c r="D116" s="2">
         <v>45427</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" t="str">
-        <f>CONCATENATE(A116,"_",B116,"_",C116,"_",E116)</f>
-        <v>Doubek_LH_St_Martin_1.5_May</v>
-      </c>
-      <c r="G116" s="3">
+      <c r="E116" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_1.5_May_2024</v>
+      </c>
+      <c r="H116" s="3">
         <v>865</v>
       </c>
-      <c r="H116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -3903,21 +4282,24 @@
       <c r="D117" s="2">
         <v>45427</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F117" t="str">
-        <f>CONCATENATE(A117,"_",B117,"_",C117,"_",E117)</f>
-        <v>Doubek_LH_St_Martin_2_May</v>
-      </c>
-      <c r="G117" s="3">
+      <c r="E117" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_2_May_2024</v>
+      </c>
+      <c r="H117" s="3">
         <v>785</v>
       </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -3930,21 +4312,24 @@
       <c r="D118" s="2">
         <v>45427</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F118" t="str">
-        <f>CONCATENATE(A118,"_",B118,"_",C118,"_",E118)</f>
-        <v>Doubek_LH_St_Martin_2.5_May</v>
-      </c>
-      <c r="G118" s="3">
+      <c r="E118" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_2.5_May_2024</v>
+      </c>
+      <c r="H118" s="3">
         <v>653</v>
       </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3957,21 +4342,24 @@
       <c r="D119" s="2">
         <v>45427</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" t="str">
-        <f>CONCATENATE(A119,"_",B119,"_",C119,"_",E119)</f>
-        <v>Doubek_LH_St_Martin_3_May</v>
-      </c>
-      <c r="G119" s="3">
+      <c r="E119" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_3_May_2024</v>
+      </c>
+      <c r="H119" s="3">
         <v>580</v>
       </c>
-      <c r="H119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -3984,21 +4372,24 @@
       <c r="D120" s="2">
         <v>45427</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F120" t="str">
-        <f>CONCATENATE(A120,"_",B120,"_",C120,"_",E120)</f>
-        <v>Doubek_LH_St_Martin_3.5_May</v>
-      </c>
-      <c r="G120" s="3">
+      <c r="E120" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_3.5_May_2024</v>
+      </c>
+      <c r="H120" s="3">
         <v>543</v>
       </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -4011,21 +4402,24 @@
       <c r="D121" s="2">
         <v>45427</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" t="str">
-        <f>CONCATENATE(A121,"_",B121,"_",C121,"_",E121)</f>
-        <v>Doubek_LH_St_Martin_4_May</v>
-      </c>
-      <c r="G121" s="3">
+      <c r="E121" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_4_May_2024</v>
+      </c>
+      <c r="H121" s="3">
         <v>443</v>
       </c>
-      <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -4038,21 +4432,24 @@
       <c r="D122" s="2">
         <v>45427</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" t="str">
-        <f>CONCATENATE(A122,"_",B122,"_",C122,"_",E122)</f>
-        <v>Doubek_LH_St_Martin_4.5_May</v>
-      </c>
-      <c r="G122" s="3">
+      <c r="E122" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_4.5_May_2024</v>
+      </c>
+      <c r="H122" s="3">
         <v>376</v>
       </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -4065,21 +4462,24 @@
       <c r="D123" s="2">
         <v>45427</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" t="str">
-        <f>CONCATENATE(A123,"_",B123,"_",C123,"_",E123)</f>
-        <v>Doubek_LH_St_Martin_5_May</v>
-      </c>
-      <c r="G123" s="3">
+      <c r="E123" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_5_May_2024</v>
+      </c>
+      <c r="H123" s="3">
         <v>318</v>
       </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -4092,21 +4492,24 @@
       <c r="D124" s="2">
         <v>45427</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F124" t="str">
-        <f>CONCATENATE(A124,"_",B124,"_",C124,"_",E124)</f>
-        <v>Doubek_LH_St_Martin_5.5_May</v>
-      </c>
-      <c r="G124" s="3">
+      <c r="E124" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_5.5_May_2024</v>
+      </c>
+      <c r="H124" s="3">
         <v>277</v>
       </c>
-      <c r="H124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -4119,21 +4522,24 @@
       <c r="D125" s="2">
         <v>45427</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" t="str">
-        <f>CONCATENATE(A125,"_",B125,"_",C125,"_",E125)</f>
-        <v>Doubek_LH_St_Martin_6_May</v>
-      </c>
-      <c r="G125" s="3">
+      <c r="E125" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_6_May_2024</v>
+      </c>
+      <c r="H125" s="3">
         <v>260</v>
       </c>
-      <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -4146,21 +4552,24 @@
       <c r="D126" s="2">
         <v>45427</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F126" t="str">
-        <f>CONCATENATE(A126,"_",B126,"_",C126,"_",E126)</f>
-        <v>Doubek_LH_St_Martin_6.5_May</v>
-      </c>
-      <c r="G126" s="3">
+      <c r="E126" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_6.5_May_2024</v>
+      </c>
+      <c r="H126" s="3">
         <v>216</v>
       </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -4173,21 +4582,24 @@
       <c r="D127" s="2">
         <v>45427</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" t="str">
-        <f>CONCATENATE(A127,"_",B127,"_",C127,"_",E127)</f>
-        <v>Doubek_LH_St_Martin_7_May</v>
-      </c>
-      <c r="G127" s="3">
+      <c r="E127" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_7_May_2024</v>
+      </c>
+      <c r="H127" s="3">
         <v>203</v>
       </c>
-      <c r="H127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -4200,21 +4612,24 @@
       <c r="D128" s="2">
         <v>45427</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" t="str">
-        <f>CONCATENATE(A128,"_",B128,"_",C128,"_",E128)</f>
-        <v>Doubek_LH_St_Martin_7.5_May</v>
-      </c>
-      <c r="G128" s="3">
+      <c r="E128" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_7.5_May_2024</v>
+      </c>
+      <c r="H128" s="3">
         <v>157</v>
       </c>
-      <c r="H128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -4227,21 +4642,24 @@
       <c r="D129" s="2">
         <v>45427</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" t="str">
-        <f>CONCATENATE(A129,"_",B129,"_",C129,"_",E129)</f>
-        <v>Doubek_LH_St_Martin_8_May</v>
-      </c>
-      <c r="G129" s="3">
+      <c r="E129" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_8_May_2024</v>
+      </c>
+      <c r="H129" s="3">
         <v>132</v>
       </c>
-      <c r="H129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -4254,21 +4672,24 @@
       <c r="D130" s="2">
         <v>45427</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F130" t="str">
-        <f>CONCATENATE(A130,"_",B130,"_",C130,"_",E130)</f>
-        <v>Doubek_LH_St_Martin_8.5_May</v>
-      </c>
-      <c r="G130" s="3">
+      <c r="E130" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v>Doubek_LH_St_Martin_8.5_May_2024</v>
+      </c>
+      <c r="H130" s="3">
         <v>118</v>
       </c>
-      <c r="H130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -4281,21 +4702,24 @@
       <c r="D131" s="2">
         <v>45427</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F131" t="str">
-        <f>CONCATENATE(A131,"_",B131,"_",C131,"_",E131)</f>
-        <v>Doubek_LH_St_Martin_9_May</v>
-      </c>
-      <c r="G131" s="3">
+      <c r="E131" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G189" si="2">CONCATENATE(A131,"_",B131,"_",C131,"_",F131,"_",E131)</f>
+        <v>Doubek_LH_St_Martin_9_May_2024</v>
+      </c>
+      <c r="H131" s="3">
         <v>107</v>
       </c>
-      <c r="H131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -4308,21 +4732,24 @@
       <c r="D132" s="2">
         <v>45427</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F132" t="str">
-        <f>CONCATENATE(A132,"_",B132,"_",C132,"_",E132)</f>
-        <v>Doubek_LH_St_Martin_9.5_May</v>
-      </c>
-      <c r="G132" s="3">
+      <c r="E132" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LH_St_Martin_9.5_May_2024</v>
+      </c>
+      <c r="H132" s="3">
         <v>107</v>
       </c>
-      <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -4335,21 +4762,24 @@
       <c r="D133" s="2">
         <v>45427</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F133" t="str">
-        <f>CONCATENATE(A133,"_",B133,"_",C133,"_",E133)</f>
-        <v>Uzarski_Mich_NW_Pier_air_May</v>
-      </c>
-      <c r="G133" s="3">
+      <c r="E133" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_air_May_2024</v>
+      </c>
+      <c r="H133" s="3">
         <v>1982.6</v>
       </c>
-      <c r="H133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -4362,21 +4792,24 @@
       <c r="D134" s="2">
         <v>45427</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" t="str">
-        <f>CONCATENATE(A134,"_",B134,"_",C134,"_",E134)</f>
-        <v>Uzarski_Mich_NW_Pier_0_May</v>
-      </c>
-      <c r="G134" s="3">
+      <c r="E134" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_0_May_2024</v>
+      </c>
+      <c r="H134" s="3">
         <v>1887</v>
       </c>
-      <c r="H134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -4389,21 +4822,24 @@
       <c r="D135" s="2">
         <v>45427</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F135" t="str">
-        <f>CONCATENATE(A135,"_",B135,"_",C135,"_",E135)</f>
-        <v>Uzarski_Mich_NW_Pier_1_May</v>
-      </c>
-      <c r="G135" s="3">
+      <c r="E135" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_1_May_2024</v>
+      </c>
+      <c r="H135" s="3">
         <v>1024.9000000000001</v>
       </c>
-      <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -4416,21 +4852,24 @@
       <c r="D136" s="2">
         <v>45427</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F136" t="str">
-        <f>CONCATENATE(A136,"_",B136,"_",C136,"_",E136)</f>
-        <v>Uzarski_Mich_NW_Pier_1.5_May</v>
-      </c>
-      <c r="G136" s="3">
+      <c r="E136" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_1.5_May_2024</v>
+      </c>
+      <c r="H136" s="3">
         <v>810.4</v>
       </c>
-      <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -4443,21 +4882,24 @@
       <c r="D137" s="2">
         <v>45427</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F137" t="str">
-        <f>CONCATENATE(A137,"_",B137,"_",C137,"_",E137)</f>
-        <v>Uzarski_Mich_NW_Pier_2_May</v>
-      </c>
-      <c r="G137" s="3">
+      <c r="E137" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_2_May_2024</v>
+      </c>
+      <c r="H137" s="3">
         <v>366.9</v>
       </c>
-      <c r="H137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -4470,21 +4912,24 @@
       <c r="D138" s="2">
         <v>45357</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F138" t="str">
-        <f>CONCATENATE(A138,"_",B138,"_",C138,"_",E138)</f>
-        <v>Doubek_LS_Whitefish_Bay_air_March</v>
-      </c>
-      <c r="G138" s="3">
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LS_Whitefish_Bay_air_March_2024</v>
+      </c>
+      <c r="H138" s="3">
         <v>2109</v>
       </c>
-      <c r="H138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -4497,21 +4942,24 @@
       <c r="D139" s="2">
         <v>45357</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F139" t="str">
-        <f>CONCATENATE(A139,"_",B139,"_",C139,"_",E139)</f>
-        <v>Doubek_LS_Whitefish_Bay_0_March</v>
-      </c>
-      <c r="G139" s="3">
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LS_Whitefish_Bay_0_March_2024</v>
+      </c>
+      <c r="H139" s="3">
         <v>966.3</v>
       </c>
-      <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -4524,21 +4972,24 @@
       <c r="D140" s="2">
         <v>45357</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F140" t="str">
-        <f>CONCATENATE(A140,"_",B140,"_",C140,"_",E140)</f>
-        <v>Doubek_LS_Whitefish_Bay_0.5_March</v>
-      </c>
-      <c r="G140" s="3">
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LS_Whitefish_Bay_0.5_March_2024</v>
+      </c>
+      <c r="H140" s="3">
         <v>581.1</v>
       </c>
-      <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -4551,21 +5002,24 @@
       <c r="D141" s="2">
         <v>45357</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F141" t="str">
-        <f>CONCATENATE(A141,"_",B141,"_",C141,"_",E141)</f>
-        <v>Doubek_LS_Whitefish_Bay_1_March</v>
-      </c>
-      <c r="G141" s="3">
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LS_Whitefish_Bay_1_March_2024</v>
+      </c>
+      <c r="H141" s="3">
         <v>193.7</v>
       </c>
-      <c r="H141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -4578,21 +5032,24 @@
       <c r="D142" s="2">
         <v>45342</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F142" t="str">
-        <f>CONCATENATE(A142,"_",B142,"_",C142,"_",E142)</f>
-        <v>Doubek_LH_St_Martin_air_Feb</v>
-      </c>
-      <c r="G142" s="3">
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LH_St_Martin_air_Feb_2024</v>
+      </c>
+      <c r="H142" s="3">
         <v>851</v>
       </c>
-      <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -4605,21 +5062,24 @@
       <c r="D143" s="2">
         <v>45342</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F143" t="str">
-        <f>CONCATENATE(A143,"_",B143,"_",C143,"_",E143)</f>
-        <v>Doubek_LH_St_Martin_0_Feb</v>
-      </c>
-      <c r="G143" s="3">
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LH_St_Martin_0_Feb_2024</v>
+      </c>
+      <c r="H143" s="3">
         <v>488.3</v>
       </c>
-      <c r="H143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -4632,21 +5092,24 @@
       <c r="D144" s="2">
         <v>45342</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F144" t="str">
-        <f>CONCATENATE(A144,"_",B144,"_",C144,"_",E144)</f>
-        <v>Doubek_LH_St_Martin_Ice_Feb</v>
-      </c>
-      <c r="G144" s="3">
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LH_St_Martin_Ice_Feb_2024</v>
+      </c>
+      <c r="H144" s="3">
         <v>54.81</v>
       </c>
-      <c r="H144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -4659,21 +5122,24 @@
       <c r="D145" s="2">
         <v>45342</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F145" t="str">
-        <f>CONCATENATE(A145,"_",B145,"_",C145,"_",E145)</f>
-        <v>Doubek_LH_St_Martin_0.5_Feb</v>
-      </c>
-      <c r="G145" s="3">
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LH_St_Martin_0.5_Feb_2024</v>
+      </c>
+      <c r="H145" s="3">
         <v>38.04</v>
       </c>
-      <c r="H145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -4686,21 +5152,24 @@
       <c r="D146" s="2">
         <v>45342</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F146" t="str">
-        <f>CONCATENATE(A146,"_",B146,"_",C146,"_",E146)</f>
-        <v>Doubek_LH_St_Martin_1_Feb</v>
-      </c>
-      <c r="G146" s="3">
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>Doubek_LH_St_Martin_1_Feb_2024</v>
+      </c>
+      <c r="H146" s="3">
         <v>38.799999999999997</v>
       </c>
-      <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -4713,21 +5182,24 @@
       <c r="D147" s="2">
         <v>45350</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F147" t="str">
-        <f>CONCATENATE(A147,"_",B147,"_",C147,"_",E147)</f>
-        <v>Uzarski_Mich_NW_Pier_air_Feb</v>
-      </c>
-      <c r="G147" s="3">
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_air_Feb_2024</v>
+      </c>
+      <c r="H147" s="3">
         <v>529</v>
       </c>
-      <c r="H147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4740,21 +5212,24 @@
       <c r="D148" s="2">
         <v>45350</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F148" t="str">
-        <f>CONCATENATE(A148,"_",B148,"_",C148,"_",E148)</f>
-        <v>Uzarski_Mich_NW_Pier_0_Feb</v>
-      </c>
-      <c r="G148" s="3">
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_0_Feb_2024</v>
+      </c>
+      <c r="H148" s="3">
         <v>425.3</v>
       </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -4767,21 +5242,24 @@
       <c r="D149" s="2">
         <v>45350</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F149" t="str">
-        <f>CONCATENATE(A149,"_",B149,"_",C149,"_",E149)</f>
-        <v>Uzarski_Mich_NW_Pier_0.1_Feb</v>
-      </c>
-      <c r="G149" s="3">
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_0.1_Feb_2024</v>
+      </c>
+      <c r="H149" s="3">
         <v>308.39999999999998</v>
       </c>
-      <c r="H149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -4794,21 +5272,24 @@
       <c r="D150" s="2">
         <v>45350</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F150" t="str">
-        <f>CONCATENATE(A150,"_",B150,"_",C150,"_",E150)</f>
-        <v>Uzarski_Mich_NW_Pier_0.5_Feb</v>
-      </c>
-      <c r="G150" s="3">
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_0.5_Feb_2024</v>
+      </c>
+      <c r="H150" s="3">
         <v>254.2</v>
       </c>
-      <c r="H150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -4821,137 +5302,929 @@
       <c r="D151" s="2">
         <v>45350</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F151" t="str">
-        <f>CONCATENATE(A151,"_",B151,"_",C151,"_",E151)</f>
-        <v>Uzarski_Mich_NW_Pier_1_Feb</v>
-      </c>
-      <c r="G151" s="3">
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>Uzarski_Mich_NW_Pier_1_Feb_2024</v>
+      </c>
+      <c r="H151" s="3">
         <v>184.6</v>
       </c>
-      <c r="H151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" t="str">
-        <f>CONCATENATE(A152,"_",B152,"_",C152,"_",E152)</f>
-        <v>___</v>
-      </c>
-      <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F153" t="str">
-        <f>CONCATENATE(A153,"_",B153,"_",C153,"_",E153)</f>
-        <v>___</v>
-      </c>
-      <c r="H153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F154" t="str">
-        <f>CONCATENATE(A154,"_",B154,"_",C154,"_",E154)</f>
-        <v>___</v>
-      </c>
-      <c r="H154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F155" t="str">
-        <f>CONCATENATE(A155,"_",B155,"_",C155,"_",E155)</f>
-        <v>___</v>
-      </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F156" t="str">
-        <f>CONCATENATE(A156,"_",B156,"_",C156,"_",E156)</f>
-        <v>___</v>
-      </c>
-      <c r="H156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F157" t="str">
-        <f>CONCATENATE(A157,"_",B157,"_",C157,"_",E157)</f>
-        <v>___</v>
-      </c>
-      <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F158" t="str">
-        <f>CONCATENATE(A158,"_",B158,"_",C158,"_",E158)</f>
-        <v>___</v>
-      </c>
-      <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H169" t="s">
+      <c r="I151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E152" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_air_Feb_2025</v>
+      </c>
+      <c r="H152" s="3">
+        <v>602.29999999999995</v>
+      </c>
+      <c r="I152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>67</v>
+      </c>
+      <c r="B153" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153">
+        <v>0.5</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E153" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_0.5_Feb_2025</v>
+      </c>
+      <c r="H153">
+        <v>11.58</v>
+      </c>
+      <c r="I153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E154" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_1_Feb_2025</v>
+      </c>
+      <c r="H154">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" t="s">
+        <v>68</v>
+      </c>
+      <c r="C155">
+        <v>1.5</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E155" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_1.5_Feb_2025</v>
+      </c>
+      <c r="H155">
+        <v>3.88</v>
+      </c>
+      <c r="I155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>67</v>
+      </c>
+      <c r="B156" t="s">
+        <v>68</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E156" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_2_Feb_2025</v>
+      </c>
+      <c r="H156">
+        <v>3.84</v>
+      </c>
+      <c r="I156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>67</v>
+      </c>
+      <c r="B157" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157">
+        <v>2.5</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E157" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_2.5_Feb_2025</v>
+      </c>
+      <c r="H157">
+        <v>3.47</v>
+      </c>
+      <c r="I157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E158" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_3_Feb_2025</v>
+      </c>
+      <c r="H158">
+        <v>3.33</v>
+      </c>
+      <c r="I158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>67</v>
+      </c>
+      <c r="B159" t="s">
+        <v>68</v>
+      </c>
+      <c r="C159">
+        <v>3.5</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E159" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_3.5_Feb_2025</v>
+      </c>
+      <c r="H159">
+        <v>2.94</v>
+      </c>
+      <c r="I159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>67</v>
+      </c>
+      <c r="B160" t="s">
+        <v>68</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E160" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_4_Feb_2025</v>
+      </c>
+      <c r="H160">
+        <v>2.72</v>
+      </c>
+      <c r="I160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>67</v>
+      </c>
+      <c r="B161" t="s">
+        <v>68</v>
+      </c>
+      <c r="C161">
+        <v>4.5</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E161" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_4.5_Feb_2025</v>
+      </c>
+      <c r="H161">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>67</v>
+      </c>
+      <c r="B162" t="s">
+        <v>68</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E162" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_5_Feb_2025</v>
+      </c>
+      <c r="H162">
+        <v>2.39</v>
+      </c>
+      <c r="I162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>67</v>
+      </c>
+      <c r="B163" t="s">
+        <v>68</v>
+      </c>
+      <c r="C163">
+        <v>5.5</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E163" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_5.5_Feb_2025</v>
+      </c>
+      <c r="H163">
+        <v>2.19</v>
+      </c>
+      <c r="I163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>67</v>
+      </c>
+      <c r="B164" t="s">
+        <v>68</v>
+      </c>
+      <c r="C164">
+        <v>6</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E164" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_6_Feb_2025</v>
+      </c>
+      <c r="H164">
+        <v>1.97</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>67</v>
+      </c>
+      <c r="B165" t="s">
+        <v>68</v>
+      </c>
+      <c r="C165">
+        <v>7</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E165" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_7_Feb_2025</v>
+      </c>
+      <c r="H165">
+        <v>1.59</v>
+      </c>
+      <c r="I165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>67</v>
+      </c>
+      <c r="B166" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E166" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v>Ozerky_Washburn_8_Feb_2025</v>
+      </c>
+      <c r="H166">
+        <v>1.36</v>
+      </c>
+      <c r="I166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E167" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS1_air_Feb_2025</v>
+      </c>
+      <c r="H167">
+        <v>5579</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E168" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS1_0_Feb_2025</v>
+      </c>
+      <c r="H168" s="7">
+        <v>1392</v>
+      </c>
+      <c r="I168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>0.5</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E169" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS1_0.5_Feb_2025</v>
+      </c>
+      <c r="H169" s="7">
+        <v>231.9</v>
+      </c>
+      <c r="I169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E170" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS1_1_Feb_2025</v>
+      </c>
+      <c r="H170" s="7">
+        <v>244.8</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171">
+        <v>1.5</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E171" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS1_1.5_Feb_2025</v>
+      </c>
+      <c r="H171" s="7">
+        <v>218.3</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E172" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS1_2_Feb_2025</v>
+      </c>
+      <c r="H172" s="7">
+        <v>181</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173">
+        <v>2.5</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E173" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS1_2.5_Feb_2025</v>
+      </c>
+      <c r="H173" s="7">
+        <v>155.4</v>
+      </c>
+      <c r="I173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" t="s">
+        <v>70</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E174" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS2_air_Feb_2025</v>
+      </c>
+      <c r="H174" s="7">
+        <v>1087</v>
+      </c>
+      <c r="I174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" t="s">
+        <v>70</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E175" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS2_0_Feb_2025</v>
+      </c>
+      <c r="H175" s="7">
+        <v>971.1</v>
+      </c>
+      <c r="I175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" t="s">
+        <v>70</v>
+      </c>
+      <c r="C176">
+        <v>0.5</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E176" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS2_0.5_Feb_2025</v>
+      </c>
+      <c r="H176" s="7">
+        <v>107.2</v>
+      </c>
+      <c r="I176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" t="s">
+        <v>70</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E177" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS2_2_Feb_2025</v>
+      </c>
+      <c r="H177" s="7">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="I177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>70</v>
+      </c>
+      <c r="C178">
+        <v>1.25</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45712</v>
+      </c>
+      <c r="E178" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="2"/>
+        <v>Wagner_SCS2_1.25_Feb_2025</v>
+      </c>
+      <c r="H178" s="7">
+        <v>58.02</v>
+      </c>
+      <c r="I178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G179" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G180" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G182" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G183" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G184" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G185" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G186" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G187" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G188" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G189" t="str">
+        <f t="shared" si="2"/>
+        <v>____</v>
+      </c>
+      <c r="I189" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4970,12 +6243,12 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -4998,7 +6271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5021,7 +6294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5057,12 +6330,12 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -5079,7 +6352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5096,7 +6369,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5113,7 +6386,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5130,7 +6403,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5147,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5164,7 +6437,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -5178,7 +6451,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5195,7 +6468,7 @@
         <v>3.0990000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5212,7 +6485,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5229,7 +6502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5246,7 +6519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5263,7 +6536,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5280,7 +6553,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5297,7 +6570,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -5314,7 +6587,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5331,7 +6604,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -5348,7 +6621,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5365,7 +6638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5391,16 +6664,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC128-B821-4648-83B1-B711DF46A9F2}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -5429,7 +6702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5449,7 +6722,7 @@
         <v>0.38803886900000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -5469,7 +6742,7 @@
         <v>0.344392639</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -5489,7 +6762,7 @@
         <v>0.46241117599999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -5509,7 +6782,7 @@
         <v>0.34764982100000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5529,7 +6802,7 @@
         <v>0.43570228900000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -5549,7 +6822,7 @@
         <v>0.51344034999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +6842,7 @@
         <v>0.43027365400000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -5589,7 +6862,7 @@
         <v>0.28294048500000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5609,7 +6882,7 @@
         <v>0.38130736100000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5629,7 +6902,7 @@
         <v>0.38413025099999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5649,7 +6922,7 @@
         <v>0.309215081</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5669,7 +6942,7 @@
         <v>0.56370951499999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -5689,7 +6962,7 @@
         <v>0.29575206500000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -5709,7 +6982,7 @@
         <v>0.34916983800000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5729,7 +7002,7 @@
         <v>0.21801400400000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5765,12 +7038,12 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -5790,7 +7063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5810,7 +7083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5830,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5850,7 +7123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5870,7 +7143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -5890,7 +7163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5910,7 +7183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5930,7 +7203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5950,7 +7223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5970,7 +7243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5990,7 +7263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -6010,7 +7283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6027,7 +7300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6047,7 +7320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6067,7 +7340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -6087,7 +7360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -6107,7 +7380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
